--- a/IBRLtest2.xlsx
+++ b/IBRLtest2.xlsx
@@ -338,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:B355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B267"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2340,146 +2340,690 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>19.763000000000002</v>
+        <v>17.9696</v>
       </c>
       <c r="B250">
-        <v>41.612499999999997</v>
+        <v>44.581299999999999</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>19.7532</v>
+        <v>17.979399999999998</v>
       </c>
       <c r="B251">
-        <v>41.646099999999997</v>
+        <v>44.515099999999997</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>19.7532</v>
+        <v>17.959800000000001</v>
       </c>
       <c r="B252">
-        <v>41.646099999999997</v>
+        <v>44.581299999999999</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>19.7532</v>
+        <v>17.959800000000001</v>
       </c>
       <c r="B253">
-        <v>41.646099999999997</v>
+        <v>44.548200000000001</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>19.7532</v>
+        <v>17.95</v>
       </c>
       <c r="B254">
-        <v>41.679699999999997</v>
+        <v>44.581299999999999</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>19.7042</v>
+        <v>17.959800000000001</v>
       </c>
       <c r="B255">
-        <v>41.646099999999997</v>
+        <v>44.581299999999999</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>19.7042</v>
+        <v>17.95</v>
       </c>
       <c r="B256">
-        <v>41.646099999999997</v>
+        <v>44.548200000000001</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>19.713999999999999</v>
+        <v>17.95</v>
       </c>
       <c r="B257">
-        <v>41.646099999999997</v>
+        <v>44.713700000000003</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>19.713999999999999</v>
+        <v>17.959800000000001</v>
       </c>
       <c r="B258">
-        <v>41.578899999999997</v>
+        <v>44.746699999999997</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>19.7042</v>
+        <v>17.959800000000001</v>
       </c>
       <c r="B259">
-        <v>41.646099999999997</v>
+        <v>44.779800000000002</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>19.713999999999999</v>
+        <v>17.9206</v>
       </c>
       <c r="B260">
-        <v>41.578899999999997</v>
+        <v>44.779800000000002</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>19.7042</v>
+        <v>17.930399999999999</v>
       </c>
       <c r="B261">
-        <v>41.578899999999997</v>
+        <v>44.845999999999997</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>19.694400000000002</v>
+        <v>17.910799999999998</v>
       </c>
       <c r="B262">
-        <v>41.545299999999997</v>
+        <v>44.845999999999997</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>19.7042</v>
+        <v>17.9206</v>
       </c>
       <c r="B263">
-        <v>41.578899999999997</v>
+        <v>44.845999999999997</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>19.694400000000002</v>
+        <v>17.930399999999999</v>
       </c>
       <c r="B264">
-        <v>41.578899999999997</v>
+        <v>44.779800000000002</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>19.7042</v>
+        <v>17.9206</v>
       </c>
       <c r="B265">
+        <v>44.779800000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>18.008800000000001</v>
+      </c>
+      <c r="B286">
+        <v>44.647500000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>17.9892</v>
+      </c>
+      <c r="B287">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>17.998999999999999</v>
+      </c>
+      <c r="B288">
+        <v>44.647500000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>17.998999999999999</v>
+      </c>
+      <c r="B289">
+        <v>44.647500000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>18.008800000000001</v>
+      </c>
+      <c r="B290">
+        <v>44.614400000000003</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>17.9892</v>
+      </c>
+      <c r="B291">
+        <v>44.614400000000003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>17.998999999999999</v>
+      </c>
+      <c r="B292">
+        <v>44.614400000000003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>17.9892</v>
+      </c>
+      <c r="B293">
+        <v>44.581299999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>17.9892</v>
+      </c>
+      <c r="B294">
+        <v>44.581299999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>17.9892</v>
+      </c>
+      <c r="B295">
+        <v>44.448799999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>17.979399999999998</v>
+      </c>
+      <c r="B296">
+        <v>44.515099999999997</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>17.9892</v>
+      </c>
+      <c r="B297">
+        <v>44.581299999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>17.979399999999998</v>
+      </c>
+      <c r="B298">
+        <v>44.548200000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>17.979399999999998</v>
+      </c>
+      <c r="B299">
+        <v>44.647500000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>17.9696</v>
+      </c>
+      <c r="B300">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>17.959800000000001</v>
+      </c>
+      <c r="B301">
+        <v>44.779800000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>17.9696</v>
+      </c>
+      <c r="B302">
+        <v>44.746699999999997</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>17.9696</v>
+      </c>
+      <c r="B303">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>17.998999999999999</v>
+      </c>
+      <c r="B304">
+        <v>44.746699999999997</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>17.9892</v>
+      </c>
+      <c r="B305">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>17.979399999999998</v>
+      </c>
+      <c r="B306">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>17.979399999999998</v>
+      </c>
+      <c r="B307">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>17.9892</v>
+      </c>
+      <c r="B308">
+        <v>44.647500000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>17.979399999999998</v>
+      </c>
+      <c r="B309">
+        <v>44.647500000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>17.95</v>
+      </c>
+      <c r="B310">
+        <v>44.647500000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>17.959800000000001</v>
+      </c>
+      <c r="B311">
+        <v>44.581299999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>17.9696</v>
+      </c>
+      <c r="B312">
+        <v>44.581299999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>19.713999999999999</v>
+      </c>
+      <c r="B313">
         <v>41.612499999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266">
-        <v>19.713999999999999</v>
-      </c>
-      <c r="B266">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>19.694400000000002</v>
+      </c>
+      <c r="B314">
         <v>41.612499999999997</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267">
-        <v>19.694400000000002</v>
-      </c>
-      <c r="B267">
-        <v>41.612499999999997</v>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>18.067599999999999</v>
+      </c>
+      <c r="B315">
+        <v>44.448799999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>18.0578</v>
+      </c>
+      <c r="B316">
+        <v>44.548200000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>18.0382</v>
+      </c>
+      <c r="B317">
+        <v>44.548200000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>18.0382</v>
+      </c>
+      <c r="B318">
+        <v>44.581299999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>18.028400000000001</v>
+      </c>
+      <c r="B319">
+        <v>44.548200000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>18.028400000000001</v>
+      </c>
+      <c r="B320">
+        <v>44.581299999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>18.028400000000001</v>
+      </c>
+      <c r="B321">
+        <v>44.614400000000003</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>18.018599999999999</v>
+      </c>
+      <c r="B322">
+        <v>44.614400000000003</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>18.028400000000001</v>
+      </c>
+      <c r="B323">
+        <v>44.515099999999997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>18.018599999999999</v>
+      </c>
+      <c r="B324">
+        <v>44.647500000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>18.028400000000001</v>
+      </c>
+      <c r="B325">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>18.008800000000001</v>
+      </c>
+      <c r="B326">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>18.008800000000001</v>
+      </c>
+      <c r="B327">
+        <v>44.779800000000002</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>18.008800000000001</v>
+      </c>
+      <c r="B328">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>18.008800000000001</v>
+      </c>
+      <c r="B329">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>18.008800000000001</v>
+      </c>
+      <c r="B330">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>18.018599999999999</v>
+      </c>
+      <c r="B331">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>18.018599999999999</v>
+      </c>
+      <c r="B332">
+        <v>44.647500000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>17.930399999999999</v>
+      </c>
+      <c r="B333">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>17.930399999999999</v>
+      </c>
+      <c r="B334">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>17.95</v>
+      </c>
+      <c r="B335">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>17.940200000000001</v>
+      </c>
+      <c r="B336">
+        <v>44.614400000000003</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>17.95</v>
+      </c>
+      <c r="B337">
+        <v>44.647500000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>17.95</v>
+      </c>
+      <c r="B338">
+        <v>44.614400000000003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>17.9696</v>
+      </c>
+      <c r="B339">
+        <v>44.581299999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>17.959800000000001</v>
+      </c>
+      <c r="B340">
+        <v>44.581299999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>17.979399999999998</v>
+      </c>
+      <c r="B341">
+        <v>44.614400000000003</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>17.9696</v>
+      </c>
+      <c r="B342">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>17.979399999999998</v>
+      </c>
+      <c r="B343">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>17.979399999999998</v>
+      </c>
+      <c r="B344">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>17.9892</v>
+      </c>
+      <c r="B345">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>17.9892</v>
+      </c>
+      <c r="B346">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>17.9696</v>
+      </c>
+      <c r="B347">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>17.9892</v>
+      </c>
+      <c r="B348">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>17.979399999999998</v>
+      </c>
+      <c r="B349">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>17.9696</v>
+      </c>
+      <c r="B350">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>17.9696</v>
+      </c>
+      <c r="B351">
+        <v>44.713700000000003</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>17.9696</v>
+      </c>
+      <c r="B352">
+        <v>44.746699999999997</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>17.9892</v>
+      </c>
+      <c r="B353">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>17.9696</v>
+      </c>
+      <c r="B354">
+        <v>44.680599999999998</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>17.979399999999998</v>
+      </c>
+      <c r="B355">
+        <v>44.680599999999998</v>
       </c>
     </row>
   </sheetData>
